--- a/titlePilotStudy/data/DEU_jbh.xlsx
+++ b/titlePilotStudy/data/DEU_jbh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22981C06-FA26-5E40-9C65-842E05649AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B146645-A1A3-0740-8416-EE06A3853DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28520" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1730,9 +1730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2297,7 +2297,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:42" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:39" ht="96" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>167</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="112" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>202</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="96" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>299</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>318</v>
       </c>
